--- a/import-specification/devices/inverter.xlsx
+++ b/import-specification/devices/inverter.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Deray/GitLab/d.hsueh/import-specification/devices/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9608ACE8-789C-F64A-B2F3-BC86A2368F0E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="29800" yWindow="460" windowWidth="25260" windowHeight="18620" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,404 +25,392 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
-  <si>
-    <t xml:space="preserve">Field Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference id for measurement data node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device unique identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INV12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverter A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device serial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INV11.22.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device vendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vendor 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firmware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device firmware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datapoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy generated per interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P_AC[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power AC (single phase or accumulated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_DAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy generated per day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_YEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy generated per year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E_TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total generated energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P_DC[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power DC (single string or accumulated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_DC[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voltage DC (single string or accumulated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_DC[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current DC (single string or accumulated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_AC[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voltage AC (single phase or accumulated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_AC[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current AC (single phase or accumulated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F_AC[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid frequency (single phase or accumulated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_AC[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apparent power (single phase or accumulated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q_AC[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactive power (single phase or accumulated)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_WR[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inverter temparatures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COS_PHI_NOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cos Phi given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COS_PHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cos Phi actual value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COS_PHI_LOAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inductive or capacitive load (c/i)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A_IN[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analogue inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D_IN[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT_AC_DAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed in Time Day AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT_AC_TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed in Time Total AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OT_AC_DAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation Time DAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OT_AC_TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation Time TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_ISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kOhm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isolation resistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_GDFI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth leakage current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATE[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global inverter state conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERROR[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global inverter error conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mOhm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grid impedance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_AC_ L1L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volts L1-L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_AC_ L2L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volts L2-L3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U_AC_ L3L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volts L3-L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I_DC[1..x]_[1..x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current DC (multiple phases)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QS_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telegrams transmitted (communication quality)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QS_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telegrams received (communication quality)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="124">
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Name Attribute</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Reference id for measurement data node</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>device type</t>
+  </si>
+  <si>
+    <t>inverter</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>device unique identifier</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>device name</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>device serial</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>device vendor</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>device model</t>
+  </si>
+  <si>
+    <t>firmware</t>
+  </si>
+  <si>
+    <t>device firmware</t>
+  </si>
+  <si>
+    <t>datapoints</t>
+  </si>
+  <si>
+    <t>E_INT</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>Energy generated per interval</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Power AC (single phase or accumulated)</t>
+  </si>
+  <si>
+    <t>E_DAY</t>
+  </si>
+  <si>
+    <t>Energy generated per day</t>
+  </si>
+  <si>
+    <t>E_YEAR</t>
+  </si>
+  <si>
+    <t>Energy generated per year</t>
+  </si>
+  <si>
+    <t>E_TOTAL</t>
+  </si>
+  <si>
+    <t>Total generated energy</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Voltage AC (single phase or accumulated)</t>
+  </si>
+  <si>
+    <t>Current AC (single phase or accumulated)</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Grid frequency (single phase or accumulated)</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Apparent power (single phase or accumulated)</t>
+  </si>
+  <si>
+    <t>Reactive power (single phase or accumulated)</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Power Control</t>
+  </si>
+  <si>
+    <t>Cos Phi given value</t>
+  </si>
+  <si>
+    <t>Cos Phi actual value</t>
+  </si>
+  <si>
+    <t>Inductive or capacitive load (c/i)</t>
+  </si>
+  <si>
+    <t>FT_AC_DAY</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Feed in Time Day AC</t>
+  </si>
+  <si>
+    <t>FT_AC_TOTAL</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>Feed in Time Total AC</t>
+  </si>
+  <si>
+    <t>OT_AC_DAY</t>
+  </si>
+  <si>
+    <t>Operation Time DAY</t>
+  </si>
+  <si>
+    <t>OT_AC_TOTAL</t>
+  </si>
+  <si>
+    <t>Operation Time TOTAL</t>
+  </si>
+  <si>
+    <t>R_ISO</t>
+  </si>
+  <si>
+    <t>kOhm</t>
+  </si>
+  <si>
+    <t>Isolation resistant</t>
+  </si>
+  <si>
+    <t>I_GDFI</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>Earth leakage current</t>
+  </si>
+  <si>
+    <t>Global inverter state conditions</t>
+  </si>
+  <si>
+    <t>Global inverter error conditions</t>
+  </si>
+  <si>
+    <t>R_AC</t>
+  </si>
+  <si>
+    <t>mOhm</t>
+  </si>
+  <si>
+    <t>Grid impedance</t>
+  </si>
+  <si>
+    <t>U_AC_ L1L2</t>
+  </si>
+  <si>
+    <t>Volts L1-L2</t>
+  </si>
+  <si>
+    <t>U_AC_ L2L3</t>
+  </si>
+  <si>
+    <t>Volts L2-L3</t>
+  </si>
+  <si>
+    <t>U_AC_ L3L1</t>
+  </si>
+  <si>
+    <t>Volts L3-L1</t>
+  </si>
+  <si>
+    <t>Current DC (multiple phases)</t>
+  </si>
+  <si>
+    <t>2.0.5</t>
+  </si>
+  <si>
+    <t>QS_TX</t>
+  </si>
+  <si>
+    <t>Telegrams transmitted (communication quality)</t>
+  </si>
+  <si>
+    <t>2.0.9</t>
+  </si>
+  <si>
+    <t>QS_RX</t>
+  </si>
+  <si>
+    <t>Telegrams received (communication quality)</t>
+  </si>
+  <si>
+    <t>&lt;device id=“1“ type=“inverter“&gt;</t>
+  </si>
+  <si>
+    <t>&lt;uid&gt;INV12345&lt;/uid&gt;</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;Inverter A&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;serial&gt;INV11.22.33&lt;/serial&gt;</t>
+  </si>
+  <si>
+    <t>&lt;vendor&gt;vendor 123&lt;/vendor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;model&gt;&lt;/model&gt;</t>
+  </si>
+  <si>
+    <t>&lt;firmware&gt;1.23.3&lt;/firmware&gt;</t>
+  </si>
+  <si>
+    <t>P_AC[1…3]</t>
+  </si>
+  <si>
+    <t>P_DC[1…x]</t>
+  </si>
+  <si>
+    <t>Power DC (single input or accumulated)</t>
+  </si>
+  <si>
+    <t>U_DC[1…x]</t>
+  </si>
+  <si>
+    <t>Voltage DC (single input or accumulated)</t>
+  </si>
+  <si>
+    <t>I_DC[1…x]</t>
+  </si>
+  <si>
+    <t>Current DC (single input or accumulated)</t>
+  </si>
+  <si>
+    <t>U_AC[1…3]</t>
+  </si>
+  <si>
+    <t>I_AC[1…x]</t>
+  </si>
+  <si>
+    <t>F_AC[1…x]</t>
+  </si>
+  <si>
+    <t>S_AC[1…3]</t>
+  </si>
+  <si>
+    <t>Q_AC[1…3]</t>
+  </si>
+  <si>
+    <t>VAr</t>
+  </si>
+  <si>
+    <t>T_WR[1…x]</t>
+  </si>
+  <si>
+    <t>inverter temperatures</t>
+  </si>
+  <si>
+    <t>COS_PHI_NOM[1…3]</t>
+  </si>
+  <si>
+    <t>COS_PHI[1…3]</t>
+  </si>
+  <si>
+    <t>COS_PHI_LOAD[1…3]</t>
+  </si>
+  <si>
+    <t>A_IN[1…x]</t>
+  </si>
+  <si>
+    <t>Analogue input</t>
+  </si>
+  <si>
+    <t>D_IN[1…x]</t>
+  </si>
+  <si>
+    <t>Digital input</t>
+  </si>
+  <si>
+    <t>STATE[1…x]</t>
+  </si>
+  <si>
+    <t>ERROR[1…x]</t>
+  </si>
+  <si>
+    <t>I_DC[1…x]_[1…x]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -437,7 +430,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -445,81 +438,353 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -567,13 +832,15 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -591,13 +858,15 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -614,133 +883,135 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -751,18 +1022,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -775,18 +1046,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -797,18 +1068,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -819,18 +1090,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -841,18 +1112,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -863,18 +1134,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -885,18 +1156,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -907,18 +1178,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -929,18 +1200,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -951,18 +1222,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -973,18 +1244,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -995,18 +1266,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1017,18 +1288,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1039,18 +1310,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1061,16 +1332,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1081,16 +1352,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1101,16 +1372,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1121,16 +1392,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1141,16 +1412,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1161,18 +1432,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1183,18 +1454,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1205,18 +1476,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1227,18 +1498,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1249,18 +1520,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1271,18 +1542,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1293,16 +1564,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1313,16 +1584,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1333,18 +1604,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1355,18 +1626,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1377,18 +1648,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1399,18 +1670,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1421,18 +1692,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1440,19 +1711,19 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="2" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1460,19 +1731,19 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1480,14 +1751,13 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>

--- a/import-specification/devices/inverter.xlsx
+++ b/import-specification/devices/inverter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>Field Type</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>&lt;model&gt;&lt;/model&gt;</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>bus address</t>
+  </si>
+  <si>
+    <t>&lt;address&gt;1&lt;/address&gt;</t>
   </si>
   <si>
     <t>firmware</t>
@@ -728,7 +737,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -922,67 +931,70 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
         <v>47</v>
       </c>
       <c r="D15" t="s">
@@ -991,55 +1003,55 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
@@ -1047,7 +1059,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -1061,7 +1073,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -1075,7 +1087,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -1089,41 +1101,41 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
@@ -1131,41 +1143,41 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -1173,7 +1185,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
         <v>81</v>
@@ -1184,33 +1196,33 @@
       <c r="D29" t="s">
         <v>83</v>
       </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
         <v>88</v>
@@ -1218,7 +1230,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>89</v>
@@ -1232,7 +1244,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>92</v>
@@ -1246,7 +1258,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
@@ -1260,7 +1272,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>98</v>
@@ -1274,130 +1286,144 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
         <v>102</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>103</v>
-      </c>
-      <c r="D37" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/inverter.xlsx
+++ b/import-specification/devices/inverter.xlsx
@@ -326,7 +326,7 @@
     <t>°C</t>
   </si>
   <si>
-    <t>inverter temparatures</t>
+    <t>inverter temperatures</t>
   </si>
   <si>
     <t>T_WR[1..x]</t>

--- a/import-specification/devices/inverter.xlsx
+++ b/import-specification/devices/inverter.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albert/Project/mc/safersun/import-specification-generator/meteocontrol.github.com/import-specification/devices/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24016BB-C0CB-AE43-9FD7-6BD6CC68E8B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="128">
   <si>
     <t>Field Type</t>
   </si>
@@ -365,6 +370,12 @@
     <t>Voltage DC (single input or accumulated)</t>
   </si>
   <si>
+    <t>U_DC_NE</t>
+  </si>
+  <si>
+    <t>U_DC_PE</t>
+  </si>
+  <si>
     <t>STATE[1..x]</t>
   </si>
   <si>
@@ -387,31 +398,43 @@
   </si>
   <si>
     <t>Telegrams received (communication quality)</t>
+  </si>
+  <si>
+    <t>Voltage DC negative pole to earth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voltage DC positive pole to earth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Wawati TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,31 +442,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -733,29 +766,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="54.129639" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37.705078" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -801,7 +830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -824,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -844,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -861,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -878,7 +907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -895,7 +924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -912,7 +941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -929,7 +958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -946,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -957,7 +986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -968,7 +997,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -979,7 +1008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -990,7 +1019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1001,7 +1030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1015,7 +1044,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1029,7 +1058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1043,7 +1072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1057,7 +1086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1071,7 +1100,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1085,7 +1114,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1099,7 +1128,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1113,7 +1142,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1127,7 +1156,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1141,7 +1170,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -1155,7 +1184,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1169,7 +1198,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1183,7 +1212,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1197,7 +1226,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1214,7 +1243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1228,7 +1257,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1271,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1256,7 +1285,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1270,7 +1299,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1284,7 +1313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1298,7 +1327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1312,7 +1341,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1326,7 +1355,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1340,7 +1369,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1354,7 +1383,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1368,7 +1397,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1382,62 +1411,82 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="B43" t="s">
         <v>116</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
         <v>118</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
         <v>120</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
         <v>122</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/import-specification/devices/inverter.xlsx
+++ b/import-specification/devices/inverter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
   <si>
     <t>Field Type</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>Voltage DC (single input or accumulated)</t>
+  </si>
+  <si>
+    <t>U_DC[1..x]_[1..x]</t>
+  </si>
+  <si>
+    <t>Voltage DC (single string)</t>
   </si>
   <si>
     <t>U_DC_NE</t>
@@ -753,7 +759,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,6 +1425,9 @@
       <c r="B44" t="s">
         <v>117</v>
       </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
       <c r="D44" t="s">
         <v>118</v>
       </c>
@@ -1458,16 +1467,27 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
         <v>125</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>126</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
         <v>127</v>
       </c>
-      <c r="D48" t="s">
+      <c r="B49" t="s">
         <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/inverter.xlsx
+++ b/import-specification/devices/inverter.xlsx
@@ -230,13 +230,13 @@
     <t>I_DC[1..x]</t>
   </si>
   <si>
-    <t>Current DC (single input or accumulated)</t>
+    <t>Current DC MPPT x</t>
   </si>
   <si>
     <t>I_DC[1..x]_[1..x]</t>
   </si>
   <si>
-    <t>Current DC (single string)</t>
+    <t>Current DC MPPT x Input x</t>
   </si>
   <si>
     <t>I_GDFI</t>
@@ -272,7 +272,7 @@
     <t>P_DC[1..x]</t>
   </si>
   <si>
-    <t>Power DC (single input or accumulated)</t>
+    <t>Power DC MPPT x</t>
   </si>
   <si>
     <t>Q_AC[1..3]</t>
@@ -353,13 +353,13 @@
     <t>U_DC[1..x]</t>
   </si>
   <si>
-    <t>Voltage DC (single input or accumulated)</t>
+    <t>Voltage DC MPPT x</t>
   </si>
   <si>
     <t>U_DC[1..x]_[1..x]</t>
   </si>
   <si>
-    <t>Voltage DC (single string)</t>
+    <t>Voltage DC MPPT x Input x</t>
   </si>
   <si>
     <t>U_DC_NE</t>

--- a/import-specification/devices/inverter.xlsx
+++ b/import-specification/devices/inverter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>Field Type</t>
   </si>
@@ -227,6 +227,12 @@
     <t>Current AC (single phase or accumulated)</t>
   </si>
   <si>
+    <t>I_DC</t>
+  </si>
+  <si>
+    <t>Current DC (accumulated)</t>
+  </si>
+  <si>
     <t>I_DC[1..x]</t>
   </si>
   <si>
@@ -269,6 +275,12 @@
     <t>Power AC (single phase or accumulated)</t>
   </si>
   <si>
+    <t>P_DC</t>
+  </si>
+  <si>
+    <t>Power DC (accumulated)</t>
+  </si>
+  <si>
     <t>P_DC[1..x]</t>
   </si>
   <si>
@@ -348,6 +360,12 @@
   </si>
   <si>
     <t>Volts L3-L1</t>
+  </si>
+  <si>
+    <t>U_DC</t>
+  </si>
+  <si>
+    <t>Voltage DC (accumulated)</t>
   </si>
   <si>
     <t>U_DC[1..x]</t>
@@ -759,7 +777,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,10 +1189,10 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1182,10 +1200,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>78</v>
@@ -1199,7 +1217,7 @@
         <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
@@ -1213,13 +1231,10 @@
         <v>81</v>
       </c>
       <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
         <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1227,14 +1242,17 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
         <v>84</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
       </c>
       <c r="D30" t="s">
         <v>85</v>
       </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
@@ -1244,10 +1262,10 @@
         <v>86</v>
       </c>
       <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
         <v>87</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1255,13 +1273,13 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
         <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1269,13 +1287,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
         <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1283,13 +1301,13 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
         <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1297,13 +1315,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
         <v>98</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1311,13 +1329,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
         <v>101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1345,7 +1363,7 @@
         <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1353,10 +1371,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
         <v>107</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
       </c>
       <c r="D39" t="s">
         <v>108</v>
@@ -1370,7 +1388,7 @@
         <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
         <v>110</v>
@@ -1384,7 +1402,7 @@
         <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
         <v>112</v>
@@ -1398,7 +1416,7 @@
         <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
         <v>114</v>
@@ -1412,7 +1430,7 @@
         <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
         <v>116</v>
@@ -1426,7 +1444,7 @@
         <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D44" t="s">
         <v>118</v>
@@ -1439,6 +1457,9 @@
       <c r="B45" t="s">
         <v>119</v>
       </c>
+      <c r="C45" t="s">
+        <v>107</v>
+      </c>
       <c r="D45" t="s">
         <v>120</v>
       </c>
@@ -1450,6 +1471,9 @@
       <c r="B46" t="s">
         <v>121</v>
       </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
       <c r="D46" t="s">
         <v>122</v>
       </c>
@@ -1461,6 +1485,9 @@
       <c r="B47" t="s">
         <v>123</v>
       </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
       <c r="D47" t="s">
         <v>124</v>
       </c>
@@ -1478,16 +1505,49 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
         <v>127</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>128</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
         <v>129</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
